--- a/src/test/resources/testdata/AirDoctorTestData.xlsx
+++ b/src/test/resources/testdata/AirDoctorTestData.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MridulVashistha\eclipse-workspace\AirDoctorAutomationTest\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B137094D-B0FF-42B6-92AD-C352D70619B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E25324-9D93-40E7-92A0-3E2ACB84305F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{77652726-F358-41C9-8ABC-F2A00153F210}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{77652726-F358-41C9-8ABC-F2A00153F210}"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
     <sheet name="affiliatelink" sheetId="2" r:id="rId2"/>
     <sheet name="genericaffiliates" sheetId="3" r:id="rId3"/>
     <sheet name="customaffiliates" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
+    <sheet name="customaffiliates2" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4996" uniqueCount="2697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5000" uniqueCount="2697">
   <si>
     <t>ModelName</t>
   </si>
@@ -20562,7 +20563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B31AF645-2FFD-4285-AA9D-4CBA0690588B}">
   <dimension ref="A2:A2098"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -31068,8 +31069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA46C1F-6321-48C5-899D-25DC488F6516}">
   <dimension ref="A2:A386"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -33011,6 +33012,47 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{519A14F7-6C71-4493-8CAF-FCE905DBF55C}">
+  <dimension ref="A2:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>2315</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{B6EE0B56-9AC0-4D62-B6EF-45CAAF8A82FF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FB6126-2CB0-4EEF-85F6-9FE195FA5558}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/src/test/resources/testdata/AirDoctorTestData.xlsx
+++ b/src/test/resources/testdata/AirDoctorTestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MridulVashistha\eclipse-workspace\AirDoctorAutomationTest\src\test\resources\testdata\"/>
     </mc:Choice>
@@ -22,7 +22,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5000" uniqueCount="2697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5005" uniqueCount="2701">
   <si>
     <t>ModelName</t>
   </si>
@@ -8132,13 +8132,26 @@
   </si>
   <si>
     <t>https://airdoctorpro.com/?c=ewf07024</t>
+  </si>
+  <si>
+    <t>$629.00</t>
+  </si>
+  <si>
+    <t>$56.77</t>
+  </si>
+  <si>
+    <t>$685.77</t>
+  </si>
+  <si>
+    <t>288256</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8743,6 +8756,21 @@
       <c r="R2" s="9" t="s">
         <v>31</v>
       </c>
+      <c r="S2" t="s">
+        <v>2697</v>
+      </c>
+      <c r="T2" t="s">
+        <v>56</v>
+      </c>
+      <c r="U2" t="s">
+        <v>2698</v>
+      </c>
+      <c r="V2" t="s">
+        <v>2699</v>
+      </c>
+      <c r="W2" t="s">
+        <v>2700</v>
+      </c>
     </row>
     <row r="3" spans="1:23" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
@@ -10063,7 +10091,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="53" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="53.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
@@ -20569,7 +20597,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="48.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="48.90625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
@@ -31075,7 +31103,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="47.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="47.26953125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
@@ -33021,7 +33049,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="35.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
